--- a/data/dataset-BRS_264-MN-1209.xlsx
+++ b/data/dataset-BRS_264-MN-1209.xlsx
@@ -1,14 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26107"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geeju\Documents\SIMPLE-project\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A168D0-89A6-428D-A4C9-D63663E2EFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -19,7 +26,7 @@
     <author>tc={64A35A23-5B4D-41E0-A209-7D56251B29D0}</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" xr:uid="{D9CF62C9-5355-4AF8-8480-CECC83A4AF97}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{D9CF62C9-5355-4AF8-8480-CECC83A4AF97}">
       <text>
         <r>
           <rPr>
@@ -27,7 +34,7 @@
             <sz val="9"/>
             <rFont val="Tahoma"/>
           </rPr>
-          <t xml:space="preserve">MAICON NARDINO:</t>
+          <t>MAICON NARDINO:</t>
         </r>
         <r>
           <rPr>
@@ -40,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1" xr:uid="{64A35A23-5B4D-41E0-A209-7D56251B29D0}">
+    <comment ref="H1" authorId="1" shapeId="0" xr:uid="{64A35A23-5B4D-41E0-A209-7D56251B29D0}">
       <text>
         <r>
           <rPr>
@@ -48,7 +55,7 @@
             <sz val="9"/>
             <rFont val="Tahoma"/>
           </rPr>
-          <t xml:space="preserve">MAICON NARDINO:</t>
+          <t>MAICON NARDINO:</t>
         </r>
         <r>
           <rPr>
@@ -66,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="40">
   <si>
     <t>Year</t>
   </si>
@@ -86,19 +93,19 @@
     <t>GY</t>
   </si>
   <si>
-    <t xml:space="preserve">Grain Yield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sowing date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">harvest date</t>
+    <t>Grain Yield</t>
+  </si>
+  <si>
+    <t>sowing date</t>
+  </si>
+  <si>
+    <t>harvest date</t>
   </si>
   <si>
     <t>Label</t>
   </si>
   <si>
-    <t xml:space="preserve">Rio Paranaiba - MG</t>
+    <t>Rio Paranaiba - MG</t>
   </si>
   <si>
     <t>irrigado</t>
@@ -122,7 +129,7 @@
     <t>VICO_20_irrigated</t>
   </si>
   <si>
-    <t xml:space="preserve">São Gotardo-MG</t>
+    <t>São Gotardo-MG</t>
   </si>
   <si>
     <t>sequeiro</t>
@@ -134,7 +141,7 @@
     <t>SAOG_20_irrigated</t>
   </si>
   <si>
-    <t xml:space="preserve">Sete Lagoas-MG</t>
+    <t>Sete Lagoas-MG</t>
   </si>
   <si>
     <t>SELAG_20_irrigated</t>
@@ -173,50 +180,81 @@
     <t>SAOG_22_nonirrigated</t>
   </si>
   <si>
-    <t xml:space="preserve">irrigado =  irrigated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequeiro = non irrigated</t>
+    <t>irrigado =  irrigated</t>
+  </si>
+  <si>
+    <t>sequeiro = non irrigated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long </t>
+  </si>
+  <si>
+    <t>ALT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="160" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="161" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <b/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="10.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="12.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
-      <color indexed="64"/>
-      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -250,81 +288,82 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="2" fillId="2" borderId="0" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="2" fillId="3" borderId="0" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="4" fillId="3" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf fontId="4" fillId="2" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="2" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="3" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Vírgula 2" xfId="1"/>
+    <cellStyle name="Vírgula 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -336,291 +375,8 @@
 </personList>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -823,6 +579,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -840,27 +597,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="100" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" width="17.81640625"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="8.81640625"/>
-    <col min="4" max="6" width="9.1796875"/>
-    <col bestFit="1" customWidth="1" min="7" max="7" width="11.81640625"/>
-    <col min="8" max="8" width="9.1796875"/>
-    <col bestFit="1" customWidth="1" min="9" max="9" width="10.90625"/>
-    <col bestFit="1" customWidth="1" min="10" max="10" width="11.36328125"/>
-    <col bestFit="1" customWidth="1" min="11" max="11" width="29.453125"/>
-    <col bestFit="1" customWidth="1" min="12" max="12" width="21.1796875"/>
+    <col min="1" max="1" width="9.21875"/>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.21875"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.21875"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -892,9 +650,17 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" ht="16.5">
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2018</v>
       </c>
@@ -911,29 +677,35 @@
         <v>1</v>
       </c>
       <c r="F2" s="3">
-        <v>5862.8999999999996</v>
+        <v>5862.9</v>
       </c>
       <c r="G2" s="4">
         <f>AVERAGE(F2:F4)</f>
-        <v>5349.6999999999998</v>
+        <v>5349.7</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="5">
-        <v>43136</v>
+        <v>43222</v>
       </c>
       <c r="J2" s="6">
-        <v>43443</v>
+        <v>43355</v>
       </c>
       <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="L2" s="24">
+        <v>-19.358611</v>
+      </c>
+      <c r="M2" s="24">
+        <v>-46.122777999999997</v>
+      </c>
+      <c r="N2" s="7">
+        <v>1150</v>
+      </c>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2018</v>
       </c>
@@ -950,14 +722,14 @@
         <v>2</v>
       </c>
       <c r="F3" s="3">
-        <v>4188.8000000000002</v>
+        <v>4188.8</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2018</v>
       </c>
@@ -974,14 +746,14 @@
         <v>3</v>
       </c>
       <c r="F4" s="3">
-        <v>5997.3999999999996</v>
+        <v>5997.4</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>2019</v>
       </c>
@@ -1006,16 +778,25 @@
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="11">
-        <v>43501</v>
+        <v>43587</v>
       </c>
       <c r="J5" s="12">
-        <v>43594</v>
+        <v>43713</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="L5" s="24">
+        <v>-19.358611</v>
+      </c>
+      <c r="M5" s="24">
+        <v>-46.122777999999997</v>
+      </c>
+      <c r="N5">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>2019</v>
       </c>
@@ -1039,7 +820,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>2019</v>
       </c>
@@ -1063,7 +844,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2019</v>
       </c>
@@ -1080,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="3">
-        <v>4659.8000000000002</v>
+        <v>4659.8</v>
       </c>
       <c r="G8" s="4">
         <f>AVERAGE(F8:F10)</f>
@@ -1096,8 +877,17 @@
       <c r="K8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="L8" s="24">
+        <v>-20.753889000000001</v>
+      </c>
+      <c r="M8" s="24">
+        <v>-42.881943999999997</v>
+      </c>
+      <c r="N8">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2019</v>
       </c>
@@ -1114,14 +904,14 @@
         <v>2</v>
       </c>
       <c r="F9" s="3">
-        <v>4325.3000000000002</v>
+        <v>4325.3</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>2019</v>
       </c>
@@ -1145,7 +935,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>2020</v>
       </c>
@@ -1162,11 +952,11 @@
         <v>1</v>
       </c>
       <c r="F11" s="9">
-        <v>4817.8000000000002</v>
+        <v>4817.8</v>
       </c>
       <c r="G11" s="10">
-        <f>AVERAGE(F11:F16)</f>
-        <v>4457.9666666666662</v>
+        <f>AVERAGE(F11:F19)</f>
+        <v>4716.4222222222224</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="11">
@@ -1178,9 +968,17 @@
       <c r="K11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="17"/>
-    </row>
-    <row r="12">
+      <c r="L11" s="24">
+        <v>-20.753889000000001</v>
+      </c>
+      <c r="M11" s="24">
+        <v>-42.881943999999997</v>
+      </c>
+      <c r="N11">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>2020</v>
       </c>
@@ -1197,7 +995,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="9">
-        <v>3406.5999999999999</v>
+        <v>3406.6</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="8"/>
@@ -1206,7 +1004,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>2020</v>
       </c>
@@ -1223,7 +1021,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="9">
-        <v>4405.3000000000002</v>
+        <v>4405.3</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="8"/>
@@ -1232,7 +1030,7 @@
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>2020</v>
       </c>
@@ -1249,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="9">
-        <v>4434.3000000000002</v>
+        <v>4434.3</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="8"/>
@@ -1260,7 +1058,7 @@
         <v>44116</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>2020</v>
       </c>
@@ -1284,7 +1082,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>2020</v>
       </c>
@@ -1301,342 +1099,375 @@
         <v>3</v>
       </c>
       <c r="F16" s="9">
-        <v>4716.8000000000002</v>
+        <v>4716.8</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17">
-      <c r="A17" s="2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
         <v>2020</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9">
+        <v>4700</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="11">
+        <v>43992</v>
+      </c>
+      <c r="J17" s="15">
+        <v>44116</v>
+      </c>
+      <c r="K17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="24">
+        <v>-20.753889000000001</v>
+      </c>
+      <c r="M17" s="24">
+        <v>-42.881943999999997</v>
+      </c>
+      <c r="N17">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="8">
+        <v>2</v>
+      </c>
+      <c r="F18" s="9">
+        <v>5350</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="8">
+        <v>3</v>
+      </c>
+      <c r="F19" s="9">
+        <v>5650</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2">
         <v>1</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F20" s="3">
         <v>1207.0999999999999</v>
       </c>
-      <c r="G17" s="4">
-        <f>AVERAGE(F17:F19)</f>
+      <c r="G20" s="4">
+        <f>AVERAGE(F20:F22)</f>
         <v>1176.3</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="13">
+      <c r="H20" s="2"/>
+      <c r="I20" s="13">
         <v>43920</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J20" s="14">
         <v>44042</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2">
+      <c r="L20" s="24">
+        <v>-19.2225</v>
+      </c>
+      <c r="M20" s="24">
+        <v>-46.091110999999998</v>
+      </c>
+      <c r="N20">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>2020</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="D21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="2">
         <v>2</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F21" s="3">
         <v>1188.5999999999999</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2">
+      <c r="G21" s="4"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>2020</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="2">
         <v>3</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F22" s="3">
         <v>1133.2</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="8">
+      <c r="G22" s="4"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
         <v>2020</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="8">
+      <c r="C23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="8">
         <v>1</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F23" s="9">
         <v>4752.9321613702959</v>
       </c>
-      <c r="G20" s="10">
-        <f>AVERAGE(F20:F22)</f>
+      <c r="G23" s="10">
+        <f>AVERAGE(F23:F25)</f>
         <v>5087.6838704830598</v>
       </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="11">
+      <c r="H23" s="8"/>
+      <c r="I23" s="11">
         <v>44028</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J23" s="15">
         <v>44145</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="8">
+      <c r="L23" s="24">
+        <v>-19.2225</v>
+      </c>
+      <c r="M23" s="24">
+        <v>-46.091110999999998</v>
+      </c>
+      <c r="N23">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
         <v>2020</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="8">
+      <c r="C24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="8">
         <v>2</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F24" s="9">
         <v>5277.4216813162047</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="8">
+      <c r="G24" s="10"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
         <v>2020</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B25" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="8">
+      <c r="C25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="8">
         <v>3</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F25" s="9">
         <v>5232.6977687626777</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" ht="15">
-      <c r="A23" s="2">
+      <c r="G25" s="10"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>2020</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="C26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="2">
         <v>1</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F26" s="3">
         <v>2325</v>
       </c>
-      <c r="G23" s="4">
-        <f>AVERAGE(F23:F25)</f>
+      <c r="G26" s="4">
+        <f>AVERAGE(F26:F28)</f>
         <v>2200</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="19">
+      <c r="H26" s="2"/>
+      <c r="I26" s="5">
         <v>44028</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J26" s="14">
         <v>44145</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2">
+      <c r="L26" s="24">
+        <v>-19.476111</v>
+      </c>
+      <c r="M26" s="24">
+        <v>-44.195</v>
+      </c>
+      <c r="N26">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>2020</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="C27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="2">
         <v>2</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F27" s="3">
         <v>1600</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2">
+      <c r="G27" s="4"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>2020</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="C28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="2">
         <v>3</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F28" s="3">
         <v>2675</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="8">
-        <v>2020</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="8">
-        <v>1</v>
-      </c>
-      <c r="F26" s="9">
-        <v>4700</v>
-      </c>
-      <c r="G26" s="10">
-        <f>AVERAGE(F26:F28)</f>
-        <v>5233.333333333333</v>
-      </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="11">
-        <v>43992</v>
-      </c>
-      <c r="J26" s="15">
-        <v>44116</v>
-      </c>
-      <c r="K26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="8">
-        <v>2020</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="8">
-        <v>2</v>
-      </c>
-      <c r="F27" s="9">
-        <v>5350</v>
-      </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="8">
-        <v>2020</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="8">
-        <v>3</v>
-      </c>
-      <c r="F28" s="9">
-        <v>5650</v>
-      </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-    </row>
-    <row r="29">
+      <c r="G28" s="4"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>2020</v>
       </c>
@@ -1669,8 +1500,17 @@
       <c r="K29" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30">
+      <c r="L29" s="24">
+        <v>-20.753889000000001</v>
+      </c>
+      <c r="M29" s="24">
+        <v>-42.881943999999997</v>
+      </c>
+      <c r="N29">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>2020</v>
       </c>
@@ -1694,7 +1534,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>2020</v>
       </c>
@@ -1718,7 +1558,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>2021</v>
       </c>
@@ -1742,17 +1582,26 @@
         <v>1633.8</v>
       </c>
       <c r="H32" s="18"/>
-      <c r="I32" s="21">
+      <c r="I32" s="12">
         <v>44649</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J32" s="19">
         <v>44775</v>
       </c>
       <c r="K32" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="33">
+      <c r="L32" s="24">
+        <v>-19.2225</v>
+      </c>
+      <c r="M32" s="24">
+        <v>-46.091110999999998</v>
+      </c>
+      <c r="N32">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>2021</v>
       </c>
@@ -1769,14 +1618,14 @@
         <v>2</v>
       </c>
       <c r="F33" s="9">
-        <v>1529.9000000000001</v>
+        <v>1529.9</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
-      <c r="J33" s="22"/>
-    </row>
-    <row r="34">
+      <c r="J33" s="19"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>2021</v>
       </c>
@@ -1798,9 +1647,9 @@
       <c r="G34" s="10"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
-      <c r="J34" s="22"/>
-    </row>
-    <row r="35">
+      <c r="J34" s="19"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>2021</v>
       </c>
@@ -1823,8 +1672,8 @@
         <f>AVERAGE(F35:F37)</f>
         <v>5691.9480698411235</v>
       </c>
-      <c r="H35" s="23"/>
-      <c r="I35" s="19">
+      <c r="H35" s="20"/>
+      <c r="I35" s="5">
         <v>44312</v>
       </c>
       <c r="J35" s="6">
@@ -1833,8 +1682,17 @@
       <c r="K35" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="36">
+      <c r="L35" s="24">
+        <v>-19.2225</v>
+      </c>
+      <c r="M35" s="24">
+        <v>-46.091110999999998</v>
+      </c>
+      <c r="N35">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>2021</v>
       </c>
@@ -1858,7 +1716,7 @@
       <c r="I36" s="2"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>2021</v>
       </c>
@@ -1882,11 +1740,11 @@
       <c r="I37" s="2"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38">
-      <c r="A38" s="24">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="21">
         <v>2021</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="8" t="s">
@@ -1895,7 +1753,7 @@
       <c r="D38" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="21">
         <v>1</v>
       </c>
       <c r="F38" s="9">
@@ -1909,18 +1767,27 @@
       <c r="I38" s="12">
         <v>44260</v>
       </c>
-      <c r="J38" s="22" t="s">
+      <c r="J38" s="19" t="s">
         <v>28</v>
       </c>
       <c r="K38" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="24">
+      <c r="L38">
+        <v>-21.1</v>
+      </c>
+      <c r="M38">
+        <v>-44.4</v>
+      </c>
+      <c r="N38">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="21">
         <v>2021</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C39" s="8" t="s">
@@ -1929,7 +1796,7 @@
       <c r="D39" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E39" s="21">
         <v>2</v>
       </c>
       <c r="F39" s="9">
@@ -1940,11 +1807,11 @@
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40">
-      <c r="A40" s="24">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="21">
         <v>2021</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="22" t="s">
         <v>27</v>
       </c>
       <c r="C40" s="8" t="s">
@@ -1953,7 +1820,7 @@
       <c r="D40" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="24">
+      <c r="E40" s="21">
         <v>3</v>
       </c>
       <c r="F40" s="9">
@@ -1964,7 +1831,7 @@
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>2021</v>
       </c>
@@ -1980,8 +1847,8 @@
       <c r="E41" s="2">
         <v>1</v>
       </c>
-      <c r="F41" s="26">
-        <v>3911.7800000000002</v>
+      <c r="F41" s="23">
+        <v>3911.78</v>
       </c>
       <c r="G41" s="4">
         <f>AVERAGE(F41:F43)</f>
@@ -1997,8 +1864,17 @@
       <c r="K41" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="42">
+      <c r="L41" s="24">
+        <v>-20.753889000000001</v>
+      </c>
+      <c r="M41" s="24">
+        <v>-42.881943999999997</v>
+      </c>
+      <c r="N41">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>2021</v>
       </c>
@@ -2014,15 +1890,15 @@
       <c r="E42" s="2">
         <v>2</v>
       </c>
-      <c r="F42" s="26">
-        <v>4064.2600000000002</v>
+      <c r="F42" s="23">
+        <v>4064.26</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>2021</v>
       </c>
@@ -2038,15 +1914,15 @@
       <c r="E43" s="2">
         <v>3</v>
       </c>
-      <c r="F43" s="26">
-        <v>2607.3400000000001</v>
+      <c r="F43" s="23">
+        <v>2607.34</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>2022</v>
       </c>
@@ -2059,7 +1935,7 @@
       <c r="D44" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E44" s="21">
         <v>1</v>
       </c>
       <c r="F44" s="9">
@@ -2079,8 +1955,17 @@
       <c r="K44" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="45">
+      <c r="L44" s="24">
+        <v>-19.2225</v>
+      </c>
+      <c r="M44" s="24">
+        <v>-46.091110999999998</v>
+      </c>
+      <c r="N44">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>2022</v>
       </c>
@@ -2093,7 +1978,7 @@
       <c r="D45" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="24">
+      <c r="E45" s="21">
         <v>2</v>
       </c>
       <c r="F45" s="9">
@@ -2104,7 +1989,7 @@
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>2022</v>
       </c>
@@ -2117,7 +2002,7 @@
       <c r="D46" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="24">
+      <c r="E46" s="21">
         <v>3</v>
       </c>
       <c r="F46" s="9">
@@ -2128,7 +2013,7 @@
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>2022</v>
       </c>
@@ -2141,7 +2026,7 @@
       <c r="D47" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="24">
+      <c r="E47" s="21">
         <v>4</v>
       </c>
       <c r="F47" s="9">
@@ -2152,21 +2037,19 @@
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
     </row>
-    <row r="49">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="0" verticalDpi="0" copies="1"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/dataset-BRS_264-MN-1209.xlsx
+++ b/data/dataset-BRS_264-MN-1209.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geeju\Documents\SIMPLE-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A168D0-89A6-428D-A4C9-D63663E2EFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CDFD4E-B8F5-44BD-9AC8-59C9BA160531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -601,7 +601,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1583,10 +1583,10 @@
       </c>
       <c r="H32" s="18"/>
       <c r="I32" s="12">
-        <v>44649</v>
+        <v>44284</v>
       </c>
       <c r="J32" s="19">
-        <v>44775</v>
+        <v>44410</v>
       </c>
       <c r="K32" t="s">
         <v>25</v>

--- a/data/dataset-BRS_264-MN-1209.xlsx
+++ b/data/dataset-BRS_264-MN-1209.xlsx
@@ -1,21 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26107"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geeju\Documents\SIMPLE-project\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A168D0-89A6-428D-A4C9-D63663E2EFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -26,7 +19,7 @@
     <author>tc={64A35A23-5B4D-41E0-A209-7D56251B29D0}</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{D9CF62C9-5355-4AF8-8480-CECC83A4AF97}">
+    <comment ref="G1" authorId="0" xr:uid="{D9CF62C9-5355-4AF8-8480-CECC83A4AF97}">
       <text>
         <r>
           <rPr>
@@ -34,7 +27,7 @@
             <sz val="9"/>
             <rFont val="Tahoma"/>
           </rPr>
-          <t>MAICON NARDINO:</t>
+          <t xml:space="preserve">MAICON NARDINO:</t>
         </r>
         <r>
           <rPr>
@@ -47,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1" shapeId="0" xr:uid="{64A35A23-5B4D-41E0-A209-7D56251B29D0}">
+    <comment ref="H1" authorId="1" xr:uid="{64A35A23-5B4D-41E0-A209-7D56251B29D0}">
       <text>
         <r>
           <rPr>
@@ -55,7 +48,7 @@
             <sz val="9"/>
             <rFont val="Tahoma"/>
           </rPr>
-          <t>MAICON NARDINO:</t>
+          <t xml:space="preserve">MAICON NARDINO:</t>
         </r>
         <r>
           <rPr>
@@ -73,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Year</t>
   </si>
@@ -93,19 +86,28 @@
     <t>GY</t>
   </si>
   <si>
-    <t>Grain Yield</t>
-  </si>
-  <si>
-    <t>sowing date</t>
-  </si>
-  <si>
-    <t>harvest date</t>
+    <t xml:space="preserve">Grain Yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sowing date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harvest date</t>
   </si>
   <si>
     <t>Label</t>
   </si>
   <si>
-    <t>Rio Paranaiba - MG</t>
+    <t xml:space="preserve">Lat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long </t>
+  </si>
+  <si>
+    <t>ALT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rio Paranaiba - MG</t>
   </si>
   <si>
     <t>irrigado</t>
@@ -129,7 +131,7 @@
     <t>VICO_20_irrigated</t>
   </si>
   <si>
-    <t>São Gotardo-MG</t>
+    <t xml:space="preserve">São Gotardo-MG</t>
   </si>
   <si>
     <t>sequeiro</t>
@@ -141,7 +143,7 @@
     <t>SAOG_20_irrigated</t>
   </si>
   <si>
-    <t>Sete Lagoas-MG</t>
+    <t xml:space="preserve">Sete Lagoas-MG</t>
   </si>
   <si>
     <t>SELAG_20_irrigated</t>
@@ -180,81 +182,55 @@
     <t>SAOG_22_nonirrigated</t>
   </si>
   <si>
-    <t>irrigado =  irrigated</t>
-  </si>
-  <si>
-    <t>sequeiro = non irrigated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lat </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long </t>
-  </si>
-  <si>
-    <t>ALT</t>
+    <t xml:space="preserve">irrigado =  irrigated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sequeiro = non irrigated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="160" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="161" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
+      <color indexed="64"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="64"/>
       <name val="Calibri"/>
+      <color theme="1"/>
+      <sz val="12.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -288,72 +264,72 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="2" fillId="2" borderId="0" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="2" fillId="3" borderId="0" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="5" fillId="3" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf fontId="5" fillId="2" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="5" fillId="2" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="5" fillId="3" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Vírgula 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Vírgula 2" xfId="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -362,21 +338,301 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="MAICON NARDINO" id="{74970F24-A064-4B13-758E-49A27A487D7F}" userId="S::nardino@ufv.br::5e1423b3-77c6-4c01-8dd2-2ce70bf4ac8b" providerId="AD"/>
+  <person displayName="MAICON NARDINO" id="{C680A4C5-685C-E166-A261-69018AADDCB2}" userId="S::nardino@ufv.br::5e1423b3-77c6-4c01-8dd2-2ce70bf4ac8b" providerId="AD"/>
 </personList>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -579,17 +835,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="G1" dT="2022-09-12T20:10:31.94Z" personId="{74970F24-A064-4B13-758E-49A27A487D7F}" id="{D9CF62C9-5355-4AF8-8480-CECC83A4AF97}" done="0">
+  <threadedComment ref="G1" dT="2022-09-12T20:10:31.94Z" personId="{C680A4C5-685C-E166-A261-69018AADDCB2}" id="{D9CF62C9-5355-4AF8-8480-CECC83A4AF97}" done="0">
     <text xml:space="preserve">days of flowering
 </text>
   </threadedComment>
-  <threadedComment ref="H1" dT="2022-09-12T20:10:42.55Z" personId="{74970F24-A064-4B13-758E-49A27A487D7F}" id="{64A35A23-5B4D-41E0-A209-7D56251B29D0}" done="0">
+  <threadedComment ref="H1" dT="2022-09-12T20:10:42.55Z" personId="{C680A4C5-685C-E166-A261-69018AADDCB2}" id="{64A35A23-5B4D-41E0-A209-7D56251B29D0}" done="0">
     <text xml:space="preserve">plant height
 </text>
   </threadedComment>
@@ -597,28 +852,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView topLeftCell="A11" zoomScale="85" workbookViewId="0">
+      <selection activeCell="F39" activeCellId="0" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.21875"/>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" width="17.77734375"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" width="8.77734375"/>
     <col min="4" max="6" width="9.21875"/>
-    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" min="7" max="7" width="11.77734375"/>
     <col min="8" max="8" width="9.21875"/>
-    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.21875" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" min="9" max="9" width="10.88671875"/>
+    <col bestFit="1" customWidth="1" min="10" max="10" width="11.33203125"/>
+    <col bestFit="1" customWidth="1" min="11" max="11" width="29.44140625"/>
+    <col bestFit="1" customWidth="1" min="12" max="12" width="21.21875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,37 +905,37 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5">
       <c r="A2" s="2">
         <v>2018</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="F2" s="3">
-        <v>5862.9</v>
+        <v>5862.8999999999996</v>
       </c>
       <c r="G2" s="4">
         <f>AVERAGE(F2:F4)</f>
-        <v>5349.7</v>
+        <v>5349.6999999999998</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="5">
@@ -691,238 +945,238 @@
         <v>43355</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="24">
+        <v>16</v>
+      </c>
+      <c r="L2" s="7">
         <v>-19.358611</v>
       </c>
-      <c r="M2" s="24">
+      <c r="M2" s="7">
         <v>-46.122777999999997</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="8">
         <v>1150</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3">
       <c r="A3" s="2">
         <v>2018</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
       </c>
       <c r="F3" s="3">
-        <v>4188.8</v>
+        <v>4188.8000000000002</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="2">
         <v>2018</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
       </c>
       <c r="F4" s="3">
-        <v>5997.4</v>
+        <v>5997.3999999999996</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+    <row r="5">
+      <c r="A5" s="9">
         <v>2019</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="B5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9">
         <v>1</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="10">
         <v>4607.8431372549021</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="11">
         <f>AVERAGE(F5:F7)</f>
         <v>4588.2352941176468</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11">
+      <c r="H5" s="9"/>
+      <c r="I5" s="12">
         <v>43587</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="13">
         <v>43713</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="24">
+        <v>17</v>
+      </c>
+      <c r="L5" s="7">
         <v>-19.358611</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M5" s="7">
         <v>-46.122777999999997</v>
       </c>
       <c r="N5">
         <v>1150</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+    <row r="6">
+      <c r="A6" s="9">
         <v>2019</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="B6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="9">
         <v>2</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="10">
         <v>4411.7647058823532</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="G6" s="11"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="9">
         <v>2019</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="B7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="9">
         <v>3</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="10">
         <v>4745.0980392156862</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G7" s="11"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8">
       <c r="A8" s="2">
         <v>2019</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="3">
-        <v>4659.8</v>
+        <v>4659.8000000000002</v>
       </c>
       <c r="G8" s="4">
         <f>AVERAGE(F8:F10)</f>
         <v>4628.7333333333336</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="13">
+      <c r="I8" s="14">
         <v>43626</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="15">
         <v>43748</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="24">
+        <v>19</v>
+      </c>
+      <c r="L8" s="7">
         <v>-20.753889000000001</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="7">
         <v>-42.881943999999997</v>
       </c>
       <c r="N8">
         <v>648</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" s="2">
         <v>2019</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
       </c>
       <c r="F9" s="3">
-        <v>4325.3</v>
+        <v>4325.3000000000002</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" s="2">
         <v>2019</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2">
         <v>3</v>
@@ -935,277 +1189,277 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+    <row r="11">
+      <c r="A11" s="9">
         <v>2020</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="B11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="9">
         <v>1</v>
       </c>
-      <c r="F11" s="9">
-        <v>4817.8</v>
-      </c>
-      <c r="G11" s="10">
+      <c r="F11" s="10">
+        <v>4817.8000000000002</v>
+      </c>
+      <c r="G11" s="11">
         <f>AVERAGE(F11:F19)</f>
         <v>4716.4222222222224</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="11">
+      <c r="H11" s="9"/>
+      <c r="I11" s="12">
         <v>43992</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="16">
         <v>44116</v>
       </c>
-      <c r="K11" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="24">
+      <c r="K11" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="7">
         <v>-20.753889000000001</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="7">
         <v>-42.881943999999997</v>
       </c>
       <c r="N11">
         <v>648</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+    <row r="12">
+      <c r="A12" s="9">
         <v>2020</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="B12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="9">
         <v>2</v>
       </c>
-      <c r="F12" s="9">
-        <v>3406.6</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="8"/>
+      <c r="F12" s="10">
+        <v>3406.5999999999999</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="9">
         <v>2020</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="8">
+      <c r="B13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="9">
         <v>3</v>
       </c>
-      <c r="F13" s="9">
-        <v>4405.3</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="8"/>
+      <c r="F13" s="10">
+        <v>4405.3000000000002</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9">
         <v>2020</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="8">
+      <c r="B14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="9">
         <v>1</v>
       </c>
-      <c r="F14" s="9">
-        <v>4434.3</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="11">
+      <c r="F14" s="10">
+        <v>4434.3000000000002</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="12">
         <v>43992</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="16">
         <v>44116</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+    <row r="15">
+      <c r="A15" s="9">
         <v>2020</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="8">
+      <c r="B15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="9">
         <v>2</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="10">
         <v>4967</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="G15" s="11"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="9">
         <v>2020</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="8">
+      <c r="B16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="9">
         <v>3</v>
       </c>
-      <c r="F16" s="9">
-        <v>4716.8</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="F16" s="10">
+        <v>4716.8000000000002</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="9">
         <v>2020</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="8">
+      <c r="B17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="9">
         <v>1</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="10">
         <v>4700</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="11">
+      <c r="G17" s="11"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="12">
         <v>43992</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="16">
         <v>44116</v>
       </c>
       <c r="K17" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="24">
+        <v>20</v>
+      </c>
+      <c r="L17" s="7">
         <v>-20.753889000000001</v>
       </c>
-      <c r="M17" s="24">
+      <c r="M17" s="7">
         <v>-42.881943999999997</v>
       </c>
       <c r="N17">
         <v>648</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+    <row r="18">
+      <c r="A18" s="9">
         <v>2020</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="8">
+      <c r="B18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="9">
         <v>2</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="10">
         <v>5350</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="G18" s="11"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="9">
         <v>2020</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="8">
+      <c r="B19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="9">
         <v>3</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="10">
         <v>5650</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G19" s="11"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20">
       <c r="A20" s="2">
         <v>2020</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
@@ -1218,37 +1472,37 @@
         <v>1176.3</v>
       </c>
       <c r="H20" s="2"/>
-      <c r="I20" s="13">
+      <c r="I20" s="14">
         <v>43920</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="15">
         <v>44042</v>
       </c>
       <c r="K20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="24">
+        <v>23</v>
+      </c>
+      <c r="L20" s="7">
         <v>-19.2225</v>
       </c>
-      <c r="M20" s="24">
+      <c r="M20" s="7">
         <v>-46.091110999999998</v>
       </c>
       <c r="N20">
         <v>1083</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21" s="2">
         <v>2020</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E21" s="2">
         <v>2</v>
@@ -1261,18 +1515,18 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22" s="2">
         <v>2020</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E22" s="2">
         <v>3</v>
@@ -1285,109 +1539,109 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+    <row r="23">
+      <c r="A23" s="9">
         <v>2020</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="8">
+      <c r="B23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="9">
         <v>1</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="10">
         <v>4752.9321613702959</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="11">
         <f>AVERAGE(F23:F25)</f>
         <v>5087.6838704830598</v>
       </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="11">
+      <c r="H23" s="9"/>
+      <c r="I23" s="12">
         <v>44028</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J23" s="16">
         <v>44145</v>
       </c>
       <c r="K23" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="24">
+        <v>24</v>
+      </c>
+      <c r="L23" s="7">
         <v>-19.2225</v>
       </c>
-      <c r="M23" s="24">
+      <c r="M23" s="7">
         <v>-46.091110999999998</v>
       </c>
       <c r="N23">
         <v>1083</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+    <row r="24">
+      <c r="A24" s="9">
         <v>2020</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="8">
+      <c r="B24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="9">
         <v>2</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="10">
         <v>5277.4216813162047</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="G24" s="11"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="9">
         <v>2020</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="8">
+      <c r="B25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="9">
         <v>3</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="10">
         <v>5232.6977687626777</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G25" s="11"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26">
       <c r="A26" s="2">
         <v>2020</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -1403,34 +1657,34 @@
       <c r="I26" s="5">
         <v>44028</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="15">
         <v>44145</v>
       </c>
       <c r="K26" t="s">
-        <v>23</v>
-      </c>
-      <c r="L26" s="24">
+        <v>26</v>
+      </c>
+      <c r="L26" s="7">
         <v>-19.476111</v>
       </c>
-      <c r="M26" s="24">
+      <c r="M26" s="7">
         <v>-44.195</v>
       </c>
       <c r="N26">
         <v>796</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27">
       <c r="A27" s="2">
         <v>2020</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E27" s="2">
         <v>2</v>
@@ -1443,18 +1697,18 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28">
       <c r="A28" s="2">
         <v>2020</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E28" s="2">
         <v>3</v>
@@ -1467,589 +1721,591 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+    <row r="29">
+      <c r="A29" s="9">
         <v>2020</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="B29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="9">
         <v>1</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="10">
         <v>4140</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="11">
         <f>AVERAGE(F29:F31)</f>
         <v>4693.333333333333</v>
       </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="13">
+      <c r="H29" s="9"/>
+      <c r="I29" s="12">
         <v>43998</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="16">
         <v>44119</v>
       </c>
       <c r="K29" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" s="24">
+        <v>27</v>
+      </c>
+      <c r="L29" s="7">
         <v>-20.753889000000001</v>
       </c>
-      <c r="M29" s="24">
+      <c r="M29" s="7">
         <v>-42.881943999999997</v>
       </c>
       <c r="N29">
         <v>648</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+    <row r="30">
+      <c r="A30" s="9">
         <v>2020</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="B30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="9">
         <v>2</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="10">
         <v>4820</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="G30" s="11"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="9">
         <v>2020</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="B31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="9">
         <v>3</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="10">
         <v>5120</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="8">
+      <c r="G31" s="11"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2">
         <v>2021</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="8">
+      <c r="B32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="2">
         <v>1</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="3">
         <v>2006</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="4">
         <f>AVERAGE(F32:F34)</f>
         <v>1633.8</v>
       </c>
-      <c r="H32" s="18"/>
-      <c r="I32" s="12">
+      <c r="H32" s="20"/>
+      <c r="I32" s="5">
         <v>44649</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J32" s="6">
         <v>44775</v>
       </c>
       <c r="K32" t="s">
-        <v>25</v>
-      </c>
-      <c r="L32" s="24">
+        <v>28</v>
+      </c>
+      <c r="L32" s="7">
         <v>-19.2225</v>
       </c>
-      <c r="M32" s="24">
+      <c r="M32" s="7">
         <v>-46.091110999999998</v>
       </c>
       <c r="N32">
         <v>1083</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
+    <row r="33">
+      <c r="A33" s="2">
         <v>2021</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="8">
+      <c r="B33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="2">
         <v>2</v>
       </c>
-      <c r="F33" s="9">
-        <v>1529.9</v>
-      </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="19"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="8">
+      <c r="F33" s="3">
+        <v>1529.9000000000001</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2">
         <v>2021</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="8">
+      <c r="B34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="2">
         <v>3</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="3">
         <v>1365.5</v>
       </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="19"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="G34" s="4"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="9">
         <v>2021</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="2">
+      <c r="B35" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="9">
         <v>1</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="10">
         <v>6128.4291800582378</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="11">
         <f>AVERAGE(F35:F37)</f>
         <v>5691.9480698411235</v>
       </c>
-      <c r="H35" s="20"/>
-      <c r="I35" s="5">
+      <c r="H35" s="18"/>
+      <c r="I35" s="13">
         <v>44312</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="21">
         <v>44441</v>
       </c>
       <c r="K35" t="s">
-        <v>26</v>
-      </c>
-      <c r="L35" s="24">
+        <v>29</v>
+      </c>
+      <c r="L35" s="7">
         <v>-19.2225</v>
       </c>
-      <c r="M35" s="24">
+      <c r="M35" s="7">
         <v>-46.091110999999998</v>
       </c>
       <c r="N35">
         <v>1083</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+    <row r="36">
+      <c r="A36" s="9">
         <v>2021</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="2">
+      <c r="B36" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="9">
         <v>2</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="10">
         <v>5942.6640215632178</v>
       </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="6"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="G36" s="11"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="9">
         <v>2021</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="2">
+      <c r="B37" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="9">
         <v>3</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="10">
         <v>5004.7510079019157</v>
       </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="6"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="21">
+      <c r="G37" s="11"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="22">
         <v>2021</v>
       </c>
-      <c r="B38" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="21">
+      <c r="B38" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="22">
         <v>1</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="3">
         <v>3506</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="4">
         <f>AVERAGE(F38:F40)</f>
         <v>3768.3333333333335</v>
       </c>
-      <c r="H38" s="8"/>
-      <c r="I38" s="12">
+      <c r="H38" s="2"/>
+      <c r="I38" s="5">
         <v>44260</v>
       </c>
-      <c r="J38" s="19" t="s">
-        <v>28</v>
+      <c r="J38" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="K38" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L38">
-        <v>-21.1</v>
+        <v>-21.100000000000001</v>
       </c>
       <c r="M38">
-        <v>-44.4</v>
+        <v>-44.399999999999999</v>
       </c>
       <c r="N38">
         <v>1084</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="21">
+    <row r="39">
+      <c r="A39" s="22">
         <v>2021</v>
       </c>
-      <c r="B39" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="21">
+      <c r="B39" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="22">
         <v>2</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="3">
         <v>2914</v>
       </c>
-      <c r="G39" s="10"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="21">
+      <c r="G39" s="4"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="22">
         <v>2021</v>
       </c>
-      <c r="B40" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="21">
+      <c r="B40" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="22">
         <v>3</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="3">
         <v>4885</v>
       </c>
-      <c r="G40" s="10"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="G40" s="4"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="9">
         <v>2021</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="2">
+      <c r="B41" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="9">
         <v>1</v>
       </c>
-      <c r="F41" s="23">
-        <v>3911.78</v>
-      </c>
-      <c r="G41" s="4">
+      <c r="F41" s="24">
+        <v>3911.7800000000002</v>
+      </c>
+      <c r="G41" s="11">
         <f>AVERAGE(F41:F43)</f>
         <v>3527.7933333333335</v>
       </c>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>31</v>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="K41" t="s">
-        <v>32</v>
-      </c>
-      <c r="L41" s="24">
+        <v>35</v>
+      </c>
+      <c r="L41" s="7">
         <v>-20.753889000000001</v>
       </c>
-      <c r="M41" s="24">
+      <c r="M41" s="7">
         <v>-42.881943999999997</v>
       </c>
       <c r="N41">
         <v>648</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+    <row r="42">
+      <c r="A42" s="9">
         <v>2021</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="2">
+      <c r="B42" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="9">
         <v>2</v>
       </c>
-      <c r="F42" s="23">
-        <v>4064.26</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="F42" s="24">
+        <v>4064.2600000000002</v>
+      </c>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="9">
         <v>2021</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="2">
+      <c r="B43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="9">
         <v>3</v>
       </c>
-      <c r="F43" s="23">
-        <v>2607.34</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="8">
+      <c r="F43" s="24">
+        <v>2607.3400000000001</v>
+      </c>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2">
         <v>2022</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="21">
+      <c r="B44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="22">
         <v>1</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="3">
         <v>3112.3586206896553</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G44" s="4">
         <f>AVERAGE(F44:F47)</f>
         <v>2744.4666666666667</v>
       </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J44" s="12">
+      <c r="H44" s="2"/>
+      <c r="I44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J44" s="5">
         <v>44600</v>
       </c>
       <c r="K44" t="s">
-        <v>34</v>
-      </c>
-      <c r="L44" s="24">
+        <v>37</v>
+      </c>
+      <c r="L44" s="7">
         <v>-19.2225</v>
       </c>
-      <c r="M44" s="24">
+      <c r="M44" s="7">
         <v>-46.091110999999998</v>
       </c>
       <c r="N44">
         <v>1083</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="8">
+    <row r="45">
+      <c r="A45" s="2">
         <v>2022</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="21">
+      <c r="B45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="22">
         <v>2</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="3">
         <v>2716.7862068965519</v>
       </c>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="8">
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2">
         <v>2022</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="21">
+      <c r="B46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="22">
         <v>3</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="3">
         <v>2726.4781609195406</v>
       </c>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="8">
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2">
         <v>2022</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="21">
+      <c r="B47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="22">
         <v>4</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="3">
         <v>2422.2436781609194</v>
       </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="49">
       <c r="C49" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="C50" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="0" verticalDpi="0" copies="1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/data/dataset-BRS_264-MN-1209.xlsx
+++ b/data/dataset-BRS_264-MN-1209.xlsx
@@ -196,7 +196,7 @@
     <numFmt numFmtId="160" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="161" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -218,7 +218,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <color indexed="64"/>
       <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
@@ -226,11 +225,6 @@
       <name val="Calibri"/>
       <color theme="1"/>
       <sz val="12.000000"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -290,17 +284,17 @@
     <xf fontId="2" fillId="3" borderId="0" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="5" fillId="3" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="3" fillId="3" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="3" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf fontId="5" fillId="2" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="3" fillId="2" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="5" fillId="2" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="3" fillId="2" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="3" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="3" fillId="3" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -344,7 +338,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="MAICON NARDINO" id="{C680A4C5-685C-E166-A261-69018AADDCB2}" userId="S::nardino@ufv.br::5e1423b3-77c6-4c01-8dd2-2ce70bf4ac8b" providerId="AD"/>
+  <person displayName="MAICON NARDINO" id="{DB78C1A8-9E20-2F0F-4638-D33431BD5D0F}" userId="S::nardino@ufv.br::5e1423b3-77c6-4c01-8dd2-2ce70bf4ac8b" providerId="AD"/>
 </personList>
 </file>
 
@@ -840,11 +834,11 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="G1" dT="2022-09-12T20:10:31.94Z" personId="{C680A4C5-685C-E166-A261-69018AADDCB2}" id="{D9CF62C9-5355-4AF8-8480-CECC83A4AF97}" done="0">
+  <threadedComment ref="G1" dT="2022-09-12T20:10:31.94Z" personId="{DB78C1A8-9E20-2F0F-4638-D33431BD5D0F}" id="{D9CF62C9-5355-4AF8-8480-CECC83A4AF97}" done="0">
     <text xml:space="preserve">days of flowering
 </text>
   </threadedComment>
-  <threadedComment ref="H1" dT="2022-09-12T20:10:42.55Z" personId="{C680A4C5-685C-E166-A261-69018AADDCB2}" id="{64A35A23-5B4D-41E0-A209-7D56251B29D0}" done="0">
+  <threadedComment ref="H1" dT="2022-09-12T20:10:42.55Z" personId="{DB78C1A8-9E20-2F0F-4638-D33431BD5D0F}" id="{64A35A23-5B4D-41E0-A209-7D56251B29D0}" done="0">
     <text xml:space="preserve">plant height
 </text>
   </threadedComment>
@@ -854,7 +848,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="F39" activeCellId="0" sqref="F39"/>
     </sheetView>
   </sheetViews>
@@ -1387,9 +1381,6 @@
       <c r="J17" s="16">
         <v>44116</v>
       </c>
-      <c r="K17" t="s">
-        <v>20</v>
-      </c>
       <c r="L17" s="7">
         <v>-20.753889000000001</v>
       </c>
